--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H2">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I2">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J2">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.25996553535615</v>
+        <v>2.328871</v>
       </c>
       <c r="N2">
-        <v>2.25996553535615</v>
+        <v>6.986613</v>
       </c>
       <c r="O2">
-        <v>0.2405968944097866</v>
+        <v>0.2411747569970185</v>
       </c>
       <c r="P2">
-        <v>0.2405968944097866</v>
+        <v>0.2411747569970185</v>
       </c>
       <c r="Q2">
-        <v>8.894411595221076</v>
+        <v>9.882851315923334</v>
       </c>
       <c r="R2">
-        <v>8.894411595221076</v>
+        <v>88.94566184331001</v>
       </c>
       <c r="S2">
-        <v>0.06181002440969884</v>
+        <v>0.05955199135017164</v>
       </c>
       <c r="T2">
-        <v>0.06181002440969884</v>
+        <v>0.05955199135017166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H3">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I3">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J3">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.13319617149015</v>
+        <v>7.327491999999999</v>
       </c>
       <c r="N3">
-        <v>7.13319617149015</v>
+        <v>21.982476</v>
       </c>
       <c r="O3">
-        <v>0.7594031055902134</v>
+        <v>0.7588252430029816</v>
       </c>
       <c r="P3">
-        <v>0.7594031055902134</v>
+        <v>0.7588252430029816</v>
       </c>
       <c r="Q3">
-        <v>28.07369481795665</v>
+        <v>31.09511602601333</v>
       </c>
       <c r="R3">
-        <v>28.07369481795665</v>
+        <v>279.85604423412</v>
       </c>
       <c r="S3">
-        <v>0.1950928111872707</v>
+        <v>0.1873726540467256</v>
       </c>
       <c r="T3">
-        <v>0.1950928111872707</v>
+        <v>0.1873726540467257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.79885071893769</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H4">
-        <v>5.79885071893769</v>
+        <v>17.596475</v>
       </c>
       <c r="I4">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J4">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.25996553535615</v>
+        <v>2.328871</v>
       </c>
       <c r="N4">
-        <v>2.25996553535615</v>
+        <v>6.986613</v>
       </c>
       <c r="O4">
-        <v>0.2405968944097866</v>
+        <v>0.2411747569970185</v>
       </c>
       <c r="P4">
-        <v>0.2405968944097866</v>
+        <v>0.2411747569970185</v>
       </c>
       <c r="Q4">
-        <v>13.10520276947441</v>
+        <v>13.65997344324167</v>
       </c>
       <c r="R4">
-        <v>13.10520276947441</v>
+        <v>122.939760989175</v>
       </c>
       <c r="S4">
-        <v>0.09107211808260514</v>
+        <v>0.08231213789737163</v>
       </c>
       <c r="T4">
-        <v>0.09107211808260514</v>
+        <v>0.08231213789737166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.79885071893769</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H5">
-        <v>5.79885071893769</v>
+        <v>17.596475</v>
       </c>
       <c r="I5">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J5">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.13319617149015</v>
+        <v>7.327491999999999</v>
       </c>
       <c r="N5">
-        <v>7.13319617149015</v>
+        <v>21.982476</v>
       </c>
       <c r="O5">
-        <v>0.7594031055902134</v>
+        <v>0.7588252430029816</v>
       </c>
       <c r="P5">
-        <v>0.7594031055902134</v>
+        <v>0.7588252430029816</v>
       </c>
       <c r="Q5">
-        <v>41.36433974736923</v>
+        <v>42.97934326356667</v>
       </c>
       <c r="R5">
-        <v>41.36433974736923</v>
+        <v>386.8140893721</v>
       </c>
       <c r="S5">
-        <v>0.2874536243465152</v>
+        <v>0.2589845173673799</v>
       </c>
       <c r="T5">
-        <v>0.2874536243465152</v>
+        <v>0.25898451736738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.28580010876254</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H6">
-        <v>5.28580010876254</v>
+        <v>18.369336</v>
       </c>
       <c r="I6">
-        <v>0.3450358540817551</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J6">
-        <v>0.3450358540817551</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.25996553535615</v>
+        <v>2.328871</v>
       </c>
       <c r="N6">
-        <v>2.25996553535615</v>
+        <v>6.986613</v>
       </c>
       <c r="O6">
-        <v>0.2405968944097866</v>
+        <v>0.2411747569970185</v>
       </c>
       <c r="P6">
-        <v>0.2405968944097866</v>
+        <v>0.2411747569970185</v>
       </c>
       <c r="Q6">
-        <v>11.94572607258513</v>
+        <v>14.259937966552</v>
       </c>
       <c r="R6">
-        <v>11.94572607258513</v>
+        <v>128.339441698968</v>
       </c>
       <c r="S6">
-        <v>0.08301455495209857</v>
+        <v>0.08592739840878089</v>
       </c>
       <c r="T6">
-        <v>0.08301455495209857</v>
+        <v>0.08592739840878091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.28580010876254</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H7">
-        <v>5.28580010876254</v>
+        <v>18.369336</v>
       </c>
       <c r="I7">
-        <v>0.3450358540817551</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J7">
-        <v>0.3450358540817551</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.13319617149015</v>
+        <v>7.327491999999999</v>
       </c>
       <c r="N7">
-        <v>7.13319617149015</v>
+        <v>21.982476</v>
       </c>
       <c r="O7">
-        <v>0.7594031055902134</v>
+        <v>0.7588252430029816</v>
       </c>
       <c r="P7">
-        <v>0.7594031055902134</v>
+        <v>0.7588252430029816</v>
       </c>
       <c r="Q7">
-        <v>37.70464909908717</v>
+        <v>44.86705419510399</v>
       </c>
       <c r="R7">
-        <v>37.70464909908717</v>
+        <v>403.8034877559359</v>
       </c>
       <c r="S7">
-        <v>0.2620212991296565</v>
+        <v>0.2703594679229355</v>
       </c>
       <c r="T7">
-        <v>0.2620212991296565</v>
+        <v>0.2703594679229355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.299276453932303</v>
+        <v>0.9536773333333334</v>
       </c>
       <c r="H8">
-        <v>0.299276453932303</v>
+        <v>2.861032</v>
       </c>
       <c r="I8">
-        <v>0.01953556789215506</v>
+        <v>0.05549183300663471</v>
       </c>
       <c r="J8">
-        <v>0.01953556789215506</v>
+        <v>0.05549183300663472</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.25996553535615</v>
+        <v>2.328871</v>
       </c>
       <c r="N8">
-        <v>2.25996553535615</v>
+        <v>6.986613</v>
       </c>
       <c r="O8">
-        <v>0.2405968944097866</v>
+        <v>0.2411747569970185</v>
       </c>
       <c r="P8">
-        <v>0.2405968944097866</v>
+        <v>0.2411747569970185</v>
       </c>
       <c r="Q8">
-        <v>0.6763544714306073</v>
+        <v>2.220991484957334</v>
       </c>
       <c r="R8">
-        <v>0.6763544714306073</v>
+        <v>19.988923364616</v>
       </c>
       <c r="S8">
-        <v>0.004700196965384048</v>
+        <v>0.01338322934069425</v>
       </c>
       <c r="T8">
-        <v>0.004700196965384048</v>
+        <v>0.01338322934069426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.299276453932303</v>
+        <v>0.9536773333333334</v>
       </c>
       <c r="H9">
-        <v>0.299276453932303</v>
+        <v>2.861032</v>
       </c>
       <c r="I9">
-        <v>0.01953556789215506</v>
+        <v>0.05549183300663471</v>
       </c>
       <c r="J9">
-        <v>0.01953556789215506</v>
+        <v>0.05549183300663472</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.13319617149015</v>
+        <v>7.327491999999999</v>
       </c>
       <c r="N9">
-        <v>7.13319617149015</v>
+        <v>21.982476</v>
       </c>
       <c r="O9">
-        <v>0.7594031055902134</v>
+        <v>0.7588252430029816</v>
       </c>
       <c r="P9">
-        <v>0.7594031055902134</v>
+        <v>0.7588252430029816</v>
       </c>
       <c r="Q9">
-        <v>2.134797655407052</v>
+        <v>6.988063030581333</v>
       </c>
       <c r="R9">
-        <v>2.134797655407052</v>
+        <v>62.892567275232</v>
       </c>
       <c r="S9">
-        <v>0.01483537092677101</v>
+        <v>0.04210860366594046</v>
       </c>
       <c r="T9">
-        <v>0.01483537092677101</v>
+        <v>0.04210860366594047</v>
       </c>
     </row>
   </sheetData>
